--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_5_2_correct.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_5_2_correct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9930285-E31C-4316-AEC9-406DF01AB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C80AFB-D9A8-48CD-B470-A3F9408AC98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6640,7 +6640,7 @@
   <dimension ref="A1:H1574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
